--- a/data/trans_orig/P16B04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B04-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37C0324B-E611-4620-BC57-34EF07AFC35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{052D9228-57DA-4FCD-A082-4232C0511182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{824E68D6-9D2F-4E4F-95D6-41AD7DF4CC6F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0F32F8C3-D03D-4670-92AA-CF0A322729AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -148,7 +148,7 @@
     <t>85,76%</t>
   </si>
   <si>
-    <t>42,94%</t>
+    <t>42,22%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -157,13 +157,13 @@
     <t>94,95%</t>
   </si>
   <si>
-    <t>73,83%</t>
+    <t>78,85%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>57,06%</t>
+    <t>57,78%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -172,7 +172,7 @@
     <t>5,05%</t>
   </si>
   <si>
-    <t>26,17%</t>
+    <t>21,15%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -196,7 +196,7 @@
     <t>87,24%</t>
   </si>
   <si>
-    <t>51,1%</t>
+    <t>52,91%</t>
   </si>
   <si>
     <t>19,78%</t>
@@ -208,7 +208,7 @@
     <t>12,76%</t>
   </si>
   <si>
-    <t>48,9%</t>
+    <t>47,09%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -232,352 +232,352 @@
     <t>94,11%</t>
   </si>
   <si>
-    <t>81,6%</t>
+    <t>80,89%</t>
   </si>
   <si>
     <t>88,55%</t>
   </si>
   <si>
-    <t>65,62%</t>
+    <t>63,74%</t>
   </si>
   <si>
     <t>91,88%</t>
   </si>
   <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>18,4%</t>
+    <t>19,11%</t>
   </si>
   <si>
     <t>11,45%</t>
   </si>
   <si>
-    <t>34,38%</t>
+    <t>36,26%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
   </si>
   <si>
     <t>95,52%</t>
   </si>
   <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>85,91%</t>
+    <t>98,59%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>89,62%</t>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentajes de antibióticos recetados en 2012 (Tasa respuesta: 2,69%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
   </si>
   <si>
     <t>98,2%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentajes de antibióticos recetados en 2012 (Tasa respuesta: 2,69%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>11,54%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
   </si>
   <si>
     <t>Porcentajes de antibióticos recetados en 2015 (Tasa respuesta: 2,07%)</t>
@@ -586,25 +586,25 @@
     <t>79,16%</t>
   </si>
   <si>
-    <t>33,97%</t>
+    <t>34,13%</t>
   </si>
   <si>
     <t>86,21%</t>
   </si>
   <si>
-    <t>44,57%</t>
+    <t>47,17%</t>
   </si>
   <si>
     <t>20,84%</t>
   </si>
   <si>
-    <t>66,03%</t>
+    <t>65,87%</t>
   </si>
   <si>
     <t>13,79%</t>
   </si>
   <si>
-    <t>55,43%</t>
+    <t>52,83%</t>
   </si>
   <si>
     <t>88,17%</t>
@@ -625,7 +625,7 @@
     <t>85,94%</t>
   </si>
   <si>
-    <t>41,63%</t>
+    <t>41,94%</t>
   </si>
   <si>
     <t>32,07%</t>
@@ -634,55 +634,55 @@
     <t>14,06%</t>
   </si>
   <si>
-    <t>58,37%</t>
+    <t>58,06%</t>
   </si>
   <si>
     <t>84,59%</t>
   </si>
   <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>94,75%</t>
   </si>
   <si>
-    <t>70,77%</t>
+    <t>75,96%</t>
   </si>
   <si>
     <t>89,4%</t>
   </si>
   <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
   <si>
     <t>15,41%</t>
   </si>
   <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
   </si>
   <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>29,23%</t>
+    <t>24,04%</t>
   </si>
   <si>
     <t>10,6%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
   </si>
   <si>
     <t>92,94%</t>
@@ -694,55 +694,55 @@
     <t>95,18%</t>
   </si>
   <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
   </si>
   <si>
     <t>95,29%</t>
   </si>
   <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC2D585-783C-4E31-91DF-F49BE3CDF24F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F117D8-9BF7-4CA7-B7CA-66B0EBDC6A2B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2536,10 +2536,10 @@
         <v>80</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M28" s="7">
         <v>127</v>
@@ -2587,10 +2587,10 @@
         <v>88</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -2685,7 +2685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C27890-D1A6-4DFC-96E2-BCBE5473BD8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96C7887-461A-4FE0-A717-B90305A171AA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4198,7 +4198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9508A2B-5937-48F7-8CAE-217EF9F5558C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8938431F-1B16-4A89-84A7-392D90C422C5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B04-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{052D9228-57DA-4FCD-A082-4232C0511182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E71D4D95-4201-4F93-A4DE-E291E377BEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0F32F8C3-D03D-4670-92AA-CF0A322729AA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4BDADC8C-1489-41D4-B382-5A30275E8943}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="237">
   <si>
     <t>Porcentajes de antibióticos recetados en 2007 (Tasa respuesta: 2,04%)</t>
   </si>
@@ -148,7 +148,7 @@
     <t>85,76%</t>
   </si>
   <si>
-    <t>42,22%</t>
+    <t>32,11%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -157,13 +157,13 @@
     <t>94,95%</t>
   </si>
   <si>
-    <t>78,85%</t>
+    <t>71,71%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>57,78%</t>
+    <t>67,89%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -172,7 +172,7 @@
     <t>5,05%</t>
   </si>
   <si>
-    <t>21,15%</t>
+    <t>28,29%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -190,25 +190,25 @@
     <t>80,22%</t>
   </si>
   <si>
-    <t>30,05%</t>
+    <t>24,97%</t>
   </si>
   <si>
     <t>87,24%</t>
   </si>
   <si>
-    <t>52,91%</t>
+    <t>43,73%</t>
   </si>
   <si>
     <t>19,78%</t>
   </si>
   <si>
-    <t>69,95%</t>
+    <t>75,03%</t>
   </si>
   <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>47,09%</t>
+    <t>56,27%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -232,91 +232,97 @@
     <t>94,11%</t>
   </si>
   <si>
-    <t>80,89%</t>
+    <t>80,87%</t>
   </si>
   <si>
     <t>88,55%</t>
   </si>
   <si>
-    <t>63,74%</t>
+    <t>62,14%</t>
   </si>
   <si>
     <t>91,88%</t>
   </si>
   <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>19,11%</t>
+    <t>19,13%</t>
   </si>
   <si>
     <t>11,45%</t>
   </si>
   <si>
-    <t>36,26%</t>
+    <t>37,86%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
   </si>
   <si>
     <t>95,52%</t>
   </si>
   <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>98,59%</t>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>1,41%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -343,268 +349,268 @@
     <t>76,64%</t>
   </si>
   <si>
-    <t>18,87%</t>
-  </si>
-  <si>
     <t>92,22%</t>
   </si>
   <si>
-    <t>61,27%</t>
+    <t>67,63%</t>
   </si>
   <si>
     <t>23,36%</t>
   </si>
   <si>
-    <t>81,13%</t>
-  </si>
-  <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>38,73%</t>
+    <t>32,37%</t>
   </si>
   <si>
     <t>77,28%</t>
   </si>
   <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
   </si>
   <si>
     <t>91,07%</t>
   </si>
   <si>
-    <t>73,47%</t>
+    <t>69,94%</t>
   </si>
   <si>
     <t>84,82%</t>
   </si>
   <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
   </si>
   <si>
     <t>22,72%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
   </si>
   <si>
     <t>8,93%</t>
   </si>
   <si>
-    <t>26,53%</t>
+    <t>30,06%</t>
   </si>
   <si>
     <t>15,18%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
   </si>
   <si>
     <t>90,3%</t>
   </si>
   <si>
-    <t>54,19%</t>
+    <t>51,08%</t>
   </si>
   <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>73,02%</t>
+    <t>78,26%</t>
   </si>
   <si>
     <t>9,7%</t>
   </si>
   <si>
-    <t>45,81%</t>
+    <t>48,92%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>26,98%</t>
+    <t>21,74%</t>
   </si>
   <si>
     <t>74,28%</t>
   </si>
   <si>
+    <t>23,59%</t>
+  </si>
+  <si>
     <t>87,05%</t>
   </si>
   <si>
-    <t>42,11%</t>
+    <t>43,07%</t>
   </si>
   <si>
     <t>25,72%</t>
   </si>
   <si>
+    <t>76,41%</t>
+  </si>
+  <si>
     <t>12,95%</t>
   </si>
   <si>
-    <t>57,89%</t>
+    <t>56,93%</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
-    <t>66,02%</t>
+    <t>68,62%</t>
   </si>
   <si>
     <t>95,91%</t>
   </si>
   <si>
-    <t>73,94%</t>
+    <t>78,58%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>33,98%</t>
+    <t>31,38%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>26,06%</t>
+    <t>21,42%</t>
   </si>
   <si>
     <t>83,38%</t>
   </si>
   <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
   </si>
   <si>
     <t>96,32%</t>
   </si>
   <si>
-    <t>84,19%</t>
+    <t>81,55%</t>
   </si>
   <si>
     <t>89,34%</t>
   </si>
   <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
   </si>
   <si>
     <t>16,62%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>15,81%</t>
+    <t>18,45%</t>
   </si>
   <si>
     <t>10,66%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
   </si>
   <si>
     <t>85,2%</t>
   </si>
   <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
   </si>
   <si>
     <t>95,3%</t>
   </si>
   <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>90,42%</t>
   </si>
   <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>14,8%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>Porcentajes de antibióticos recetados en 2015 (Tasa respuesta: 2,07%)</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>Porcentajes de antibióticos recetados en 2016 (Tasa respuesta: 2,07%)</t>
   </si>
   <si>
     <t>79,16%</t>
   </si>
   <si>
-    <t>34,13%</t>
+    <t>34,53%</t>
   </si>
   <si>
     <t>86,21%</t>
   </si>
   <si>
-    <t>47,17%</t>
+    <t>44,59%</t>
   </si>
   <si>
     <t>20,84%</t>
   </si>
   <si>
-    <t>65,87%</t>
+    <t>65,47%</t>
   </si>
   <si>
     <t>13,79%</t>
   </si>
   <si>
-    <t>52,83%</t>
+    <t>55,41%</t>
   </si>
   <si>
     <t>88,17%</t>
@@ -625,7 +631,7 @@
     <t>85,94%</t>
   </si>
   <si>
-    <t>41,94%</t>
+    <t>42,04%</t>
   </si>
   <si>
     <t>32,07%</t>
@@ -634,28 +640,28 @@
     <t>14,06%</t>
   </si>
   <si>
-    <t>58,06%</t>
+    <t>57,96%</t>
   </si>
   <si>
     <t>84,59%</t>
   </si>
   <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
   </si>
   <si>
     <t>94,75%</t>
   </si>
   <si>
-    <t>75,96%</t>
+    <t>71,92%</t>
   </si>
   <si>
     <t>89,4%</t>
   </si>
   <si>
-    <t>77,39%</t>
+    <t>75,1%</t>
   </si>
   <si>
     <t>97,31%</t>
@@ -664,16 +670,16 @@
     <t>15,41%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
   </si>
   <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>24,04%</t>
+    <t>28,08%</t>
   </si>
   <si>
     <t>10,6%</t>
@@ -682,7 +688,7 @@
     <t>2,69%</t>
   </si>
   <si>
-    <t>22,61%</t>
+    <t>24,9%</t>
   </si>
   <si>
     <t>92,94%</t>
@@ -694,7 +700,7 @@
     <t>95,18%</t>
   </si>
   <si>
-    <t>86,63%</t>
+    <t>87,13%</t>
   </si>
   <si>
     <t>98,48%</t>
@@ -703,19 +709,19 @@
     <t>95,29%</t>
   </si>
   <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
   </si>
   <si>
     <t>4,82%</t>
@@ -724,25 +730,25 @@
     <t>1,52%</t>
   </si>
   <si>
-    <t>13,37%</t>
+    <t>12,87%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F117D8-9BF7-4CA7-B7CA-66B0EBDC6A2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304BAA18-A970-48B2-A6C0-E137719C4DF8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2536,10 +2542,10 @@
         <v>80</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M28" s="7">
         <v>127</v>
@@ -2548,13 +2554,13 @@
         <v>127249</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,13 +2575,13 @@
         <v>2628</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2584,13 +2590,13 @@
         <v>3574</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -2599,13 +2605,13 @@
         <v>6203</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,7 +2667,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2685,7 +2691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96C7887-461A-4FE0-A717-B90305A171AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FEEAF6-4A4D-41BB-99AB-9D7E9EDBB137}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2702,7 +2708,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2807,39 +2813,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,39 +2858,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,39 +2903,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,7 +2955,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2964,7 +2970,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2979,7 +2985,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3003,7 +3009,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3018,7 +3024,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3033,7 +3039,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,10 +3107,10 @@
         <v>3051</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -3131,10 +3137,10 @@
         <v>11029</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -3152,13 +3158,13 @@
         <v>930</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3492,7 +3498,7 @@
         <v>1015</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
@@ -3569,7 +3575,7 @@
         <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
@@ -3596,10 +3602,10 @@
         <v>6612</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -3617,13 +3623,13 @@
         <v>983</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3647,13 +3653,13 @@
         <v>983</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,10 +3742,10 @@
         <v>12272</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -3751,10 +3757,10 @@
         <v>22228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>11</v>
@@ -3787,13 +3793,13 @@
         <v>947</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3802,13 +3808,13 @@
         <v>947</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3882,13 @@
         <v>25657</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -3891,10 +3897,10 @@
         <v>25335</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>11</v>
@@ -3906,13 +3912,13 @@
         <v>50992</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,13 +3933,13 @@
         <v>5112</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3942,13 +3948,13 @@
         <v>969</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -3957,13 +3963,13 @@
         <v>6081</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4037,13 @@
         <v>80888</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>89</v>
@@ -4046,13 +4052,13 @@
         <v>96559</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>158</v>
@@ -4061,13 +4067,13 @@
         <v>177448</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4088,13 @@
         <v>14051</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -4097,13 +4103,13 @@
         <v>4759</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -4112,13 +4118,13 @@
         <v>18809</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,7 +4180,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4198,7 +4204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8938431F-1B16-4A89-84A7-392D90C422C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7449B13F-C17B-4A7B-9590-959C97E3BBFF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4215,7 +4221,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4337,10 +4343,10 @@
         <v>6913</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -4352,10 +4358,10 @@
         <v>11375</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -4388,13 +4394,13 @@
         <v>1819</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4403,13 +4409,13 @@
         <v>1819</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,7 +4501,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -4510,7 +4516,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -4549,7 +4555,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4564,7 +4570,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,7 +4656,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -4665,7 +4671,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -4704,7 +4710,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4719,7 +4725,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,7 +4826,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4874,7 +4880,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,7 +5118,7 @@
         <v>1885</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>17</v>
@@ -5127,10 +5133,10 @@
         <v>5439</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -5163,7 +5169,7 @@
         <v>890</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
@@ -5178,13 +5184,13 @@
         <v>890</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,13 +5258,13 @@
         <v>18033</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -5267,10 +5273,10 @@
         <v>18167</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -5282,13 +5288,13 @@
         <v>36200</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,13 +5309,13 @@
         <v>3286</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5318,13 +5324,13 @@
         <v>1006</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -5333,13 +5339,13 @@
         <v>4292</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,7 +5446,7 @@
         <v>11</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5494,7 +5500,7 @@
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,13 +5568,13 @@
         <v>64832</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H28" s="7">
         <v>69</v>
@@ -5577,13 +5583,13 @@
         <v>75164</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M28" s="7">
         <v>130</v>
@@ -5592,13 +5598,13 @@
         <v>139996</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,13 +5619,13 @@
         <v>3286</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -5628,13 +5634,13 @@
         <v>3715</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -5643,13 +5649,13 @@
         <v>7001</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,7 +5711,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B04-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E71D4D95-4201-4F93-A4DE-E291E377BEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2495EDFB-4880-48E6-8CAE-B39EBADEEB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4BDADC8C-1489-41D4-B382-5A30275E8943}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F5E43F8D-97B3-46D4-B5B5-7D5C9A487E0B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="235">
   <si>
     <t>Porcentajes de antibióticos recetados en 2007 (Tasa respuesta: 2,04%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -148,7 +148,7 @@
     <t>85,76%</t>
   </si>
   <si>
-    <t>32,11%</t>
+    <t>42,94%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -157,13 +157,13 @@
     <t>94,95%</t>
   </si>
   <si>
-    <t>71,71%</t>
+    <t>73,83%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>67,89%</t>
+    <t>57,06%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -172,7 +172,7 @@
     <t>5,05%</t>
   </si>
   <si>
-    <t>28,29%</t>
+    <t>26,17%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -190,25 +190,25 @@
     <t>80,22%</t>
   </si>
   <si>
-    <t>24,97%</t>
+    <t>30,05%</t>
   </si>
   <si>
     <t>87,24%</t>
   </si>
   <si>
-    <t>43,73%</t>
+    <t>51,1%</t>
   </si>
   <si>
     <t>19,78%</t>
   </si>
   <si>
-    <t>75,03%</t>
+    <t>69,95%</t>
   </si>
   <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>56,27%</t>
+    <t>48,9%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -232,97 +232,91 @@
     <t>94,11%</t>
   </si>
   <si>
-    <t>80,87%</t>
+    <t>81,6%</t>
   </si>
   <si>
     <t>88,55%</t>
   </si>
   <si>
-    <t>62,14%</t>
+    <t>65,62%</t>
   </si>
   <si>
     <t>91,88%</t>
   </si>
   <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>19,13%</t>
+    <t>18,4%</t>
   </si>
   <si>
     <t>11,45%</t>
   </si>
   <si>
-    <t>37,86%</t>
+    <t>34,38%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
   </si>
   <si>
     <t>95,52%</t>
   </si>
   <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>85,91%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
+    <t>14,09%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -349,241 +343,241 @@
     <t>76,64%</t>
   </si>
   <si>
+    <t>18,87%</t>
+  </si>
+  <si>
     <t>92,22%</t>
   </si>
   <si>
-    <t>67,63%</t>
+    <t>67,86%</t>
   </si>
   <si>
     <t>23,36%</t>
   </si>
   <si>
+    <t>81,13%</t>
+  </si>
+  <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>32,37%</t>
+    <t>32,14%</t>
   </si>
   <si>
     <t>77,28%</t>
   </si>
   <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
   </si>
   <si>
     <t>91,07%</t>
   </si>
   <si>
-    <t>69,94%</t>
+    <t>71,87%</t>
   </si>
   <si>
     <t>84,82%</t>
   </si>
   <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
   </si>
   <si>
     <t>22,72%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
   </si>
   <si>
     <t>8,93%</t>
   </si>
   <si>
-    <t>30,06%</t>
+    <t>28,13%</t>
   </si>
   <si>
     <t>15,18%</t>
   </si>
   <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
   </si>
   <si>
     <t>90,3%</t>
   </si>
   <si>
-    <t>51,08%</t>
+    <t>48,47%</t>
   </si>
   <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>78,26%</t>
+    <t>75,65%</t>
   </si>
   <si>
     <t>9,7%</t>
   </si>
   <si>
-    <t>48,92%</t>
+    <t>51,53%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>21,74%</t>
+    <t>24,35%</t>
   </si>
   <si>
     <t>74,28%</t>
   </si>
   <si>
-    <t>23,59%</t>
-  </si>
-  <si>
     <t>87,05%</t>
   </si>
   <si>
-    <t>43,07%</t>
+    <t>42,28%</t>
   </si>
   <si>
     <t>25,72%</t>
   </si>
   <si>
-    <t>76,41%</t>
-  </si>
-  <si>
     <t>12,95%</t>
   </si>
   <si>
-    <t>56,93%</t>
+    <t>57,72%</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
-    <t>68,62%</t>
+    <t>68,02%</t>
   </si>
   <si>
     <t>95,91%</t>
   </si>
   <si>
-    <t>78,58%</t>
+    <t>78,27%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>31,38%</t>
+    <t>31,98%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>21,42%</t>
+    <t>21,73%</t>
   </si>
   <si>
     <t>83,38%</t>
   </si>
   <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
   </si>
   <si>
     <t>96,32%</t>
   </si>
   <si>
-    <t>81,55%</t>
+    <t>81,11%</t>
   </si>
   <si>
     <t>89,34%</t>
   </si>
   <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
   </si>
   <si>
     <t>16,62%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>18,45%</t>
+    <t>18,89%</t>
   </si>
   <si>
     <t>10,66%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
   </si>
   <si>
     <t>85,2%</t>
   </si>
   <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
   </si>
   <si>
     <t>95,3%</t>
   </si>
   <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>90,42%</t>
   </si>
   <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
   </si>
   <si>
     <t>14,8%</t>
   </si>
   <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
   </si>
   <si>
     <t>Porcentajes de antibióticos recetados en 2016 (Tasa respuesta: 2,07%)</t>
@@ -592,25 +586,25 @@
     <t>79,16%</t>
   </si>
   <si>
-    <t>34,53%</t>
+    <t>33,97%</t>
   </si>
   <si>
     <t>86,21%</t>
   </si>
   <si>
-    <t>44,59%</t>
+    <t>44,57%</t>
   </si>
   <si>
     <t>20,84%</t>
   </si>
   <si>
-    <t>65,47%</t>
+    <t>66,03%</t>
   </si>
   <si>
     <t>13,79%</t>
   </si>
   <si>
-    <t>55,41%</t>
+    <t>55,43%</t>
   </si>
   <si>
     <t>88,17%</t>
@@ -631,7 +625,7 @@
     <t>85,94%</t>
   </si>
   <si>
-    <t>42,04%</t>
+    <t>41,63%</t>
   </si>
   <si>
     <t>32,07%</t>
@@ -640,55 +634,55 @@
     <t>14,06%</t>
   </si>
   <si>
-    <t>57,96%</t>
+    <t>58,37%</t>
   </si>
   <si>
     <t>84,59%</t>
   </si>
   <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
   </si>
   <si>
     <t>94,75%</t>
   </si>
   <si>
-    <t>71,92%</t>
+    <t>70,77%</t>
   </si>
   <si>
     <t>89,4%</t>
   </si>
   <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
   </si>
   <si>
     <t>15,41%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
   </si>
   <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>28,08%</t>
+    <t>29,23%</t>
   </si>
   <si>
     <t>10,6%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
   </si>
   <si>
     <t>92,94%</t>
@@ -700,25 +694,25 @@
     <t>95,18%</t>
   </si>
   <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
     <t>87,13%</t>
   </si>
   <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
+    <t>98,88%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>90,31%</t>
+    <t>89,94%</t>
   </si>
   <si>
     <t>98,05%</t>
@@ -727,28 +721,28 @@
     <t>4,82%</t>
   </si>
   <si>
-    <t>1,52%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>12,87%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
     <t>4,76%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>9,69%</t>
+    <t>10,06%</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304BAA18-A970-48B2-A6C0-E137719C4DF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A572A0FE-36D6-435F-82FC-F7BBEF0A6FD6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2545,7 +2539,7 @@
         <v>81</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M28" s="7">
         <v>127</v>
@@ -2554,13 +2548,13 @@
         <v>127249</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,13 +2569,13 @@
         <v>2628</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2590,13 +2584,13 @@
         <v>3574</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -2605,13 +2599,13 @@
         <v>6203</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,7 +2661,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2691,7 +2685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FEEAF6-4A4D-41BB-99AB-9D7E9EDBB137}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B82839F-B2D5-4F96-9148-29585EB3133D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2708,7 +2702,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2813,39 +2807,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,39 +2852,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,39 +2897,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,7 +2949,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2970,7 +2964,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2985,7 +2979,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3009,7 +3003,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3024,7 +3018,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3039,7 +3033,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,10 +3101,10 @@
         <v>3051</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -3137,10 +3131,10 @@
         <v>11029</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -3158,13 +3152,13 @@
         <v>930</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3498,7 +3492,7 @@
         <v>1015</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
@@ -3575,7 +3569,7 @@
         <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
@@ -3602,10 +3596,10 @@
         <v>6612</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -3623,13 +3617,13 @@
         <v>983</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3653,13 +3647,13 @@
         <v>983</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,10 +3736,10 @@
         <v>12272</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -3757,10 +3751,10 @@
         <v>22228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>11</v>
@@ -3793,13 +3787,13 @@
         <v>947</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3808,13 +3802,13 @@
         <v>947</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3876,13 @@
         <v>25657</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -3897,10 +3891,10 @@
         <v>25335</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>11</v>
@@ -3912,13 +3906,13 @@
         <v>50992</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3927,13 @@
         <v>5112</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3948,13 +3942,13 @@
         <v>969</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -3963,13 +3957,13 @@
         <v>6081</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4031,13 @@
         <v>80888</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>89</v>
@@ -4052,13 +4046,13 @@
         <v>96559</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>158</v>
@@ -4067,13 +4061,13 @@
         <v>177448</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4082,13 @@
         <v>14051</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -4103,13 +4097,13 @@
         <v>4759</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -4118,13 +4112,13 @@
         <v>18809</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,7 +4174,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4204,7 +4198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7449B13F-C17B-4A7B-9590-959C97E3BBFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E3D692-18C9-47E7-9A12-2BE215B971EC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4221,7 +4215,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4343,10 +4337,10 @@
         <v>6913</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -4358,10 +4352,10 @@
         <v>11375</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -4394,13 +4388,13 @@
         <v>1819</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4409,13 +4403,13 @@
         <v>1819</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,7 +4495,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -4516,7 +4510,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -4555,7 +4549,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4570,7 +4564,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,7 +4650,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -4671,7 +4665,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -4710,7 +4704,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4725,7 +4719,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,7 +4820,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4880,7 +4874,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,7 +5112,7 @@
         <v>1885</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>17</v>
@@ -5133,10 +5127,10 @@
         <v>5439</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -5169,7 +5163,7 @@
         <v>890</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
@@ -5184,13 +5178,13 @@
         <v>890</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,13 +5252,13 @@
         <v>18033</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -5273,10 +5267,10 @@
         <v>18167</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -5288,13 +5282,13 @@
         <v>36200</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,13 +5303,13 @@
         <v>3286</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5324,13 +5318,13 @@
         <v>1006</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -5339,13 +5333,13 @@
         <v>4292</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,7 +5440,7 @@
         <v>11</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5500,7 +5494,7 @@
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,13 +5562,13 @@
         <v>64832</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H28" s="7">
         <v>69</v>
@@ -5583,13 +5577,13 @@
         <v>75164</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M28" s="7">
         <v>130</v>
@@ -5598,13 +5592,13 @@
         <v>139996</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,13 +5613,13 @@
         <v>3286</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -5634,13 +5628,13 @@
         <v>3715</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -5649,13 +5643,13 @@
         <v>7001</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,7 +5705,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B04-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2495EDFB-4880-48E6-8CAE-B39EBADEEB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DD91216-2A6D-4F2A-BA41-AA3BA6A7C670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F5E43F8D-97B3-46D4-B5B5-7D5C9A487E0B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0E5C65AA-63C6-4BC9-B05A-6E02B910D1EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="244">
   <si>
     <t>Porcentajes de antibióticos recetados en 2007 (Tasa respuesta: 2,04%)</t>
   </si>
@@ -325,7 +325,52 @@
     <t>Porcentajes de antibióticos recetados en 2012 (Tasa respuesta: 2,69%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -364,52 +409,40 @@
     <t>32,14%</t>
   </si>
   <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
   </si>
   <si>
     <t>90,3%</t>
@@ -709,9 +742,6 @@
     <t>98,88%</t>
   </si>
   <si>
-    <t>95,24%</t>
-  </si>
-  <si>
     <t>89,94%</t>
   </si>
   <si>
@@ -734,9 +764,6 @@
   </si>
   <si>
     <t>12,87%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
   </si>
   <si>
     <t>1,95%</t>
@@ -1154,7 +1181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A572A0FE-36D6-435F-82FC-F7BBEF0A6FD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E1BFF2-422E-4F2A-9955-3E9835912337}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2685,7 +2712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B82839F-B2D5-4F96-9148-29585EB3133D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0E04CC-6948-4B89-B0D3-96229F361F5C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2803,43 +2830,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10751</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>95</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I4" s="7">
+        <v>19548</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="N4" s="7">
+        <v>30300</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,43 +2881,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3579</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>976</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4555</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,43 +2932,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D6" s="7">
+        <v>14330</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="I6" s="7">
+        <v>20524</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="N6" s="7">
+        <v>34855</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,7 +2994,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2964,7 +3009,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2979,7 +3024,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3003,7 +3048,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3018,7 +3063,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3033,7 +3078,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,10 +3146,10 @@
         <v>3051</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -3131,10 +3176,10 @@
         <v>11029</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -3152,13 +3197,13 @@
         <v>930</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3182,13 +3227,13 @@
         <v>930</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,49 +3295,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7">
+        <v>9696</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
+        <v>9</v>
+      </c>
+      <c r="I13" s="7">
+        <v>9455</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="7">
         <v>18</v>
       </c>
-      <c r="D13" s="7">
-        <v>20447</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" s="7">
-        <v>27</v>
-      </c>
-      <c r="I13" s="7">
-        <v>29002</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="7">
-        <v>45</v>
-      </c>
       <c r="N13" s="7">
-        <v>49449</v>
+        <v>19149</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,49 +3346,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>6010</v>
+        <v>2431</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1866</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" s="7">
         <v>2</v>
       </c>
-      <c r="I14" s="7">
-        <v>2843</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M14" s="7">
-        <v>7</v>
-      </c>
       <c r="N14" s="7">
-        <v>8853</v>
+        <v>4298</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,10 +3397,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D15" s="7">
-        <v>26457</v>
+        <v>12127</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3367,10 +3412,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I15" s="7">
-        <v>31845</v>
+        <v>11321</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3382,10 +3427,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="N15" s="7">
-        <v>58302</v>
+        <v>23447</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3411,10 +3456,10 @@
         <v>9442</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -3429,7 +3474,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3444,7 +3489,7 @@
         <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -3462,13 +3507,13 @@
         <v>1015</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3483,7 +3528,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3498,7 +3543,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,7 +3611,7 @@
         <v>2840</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>17</v>
@@ -3596,10 +3641,10 @@
         <v>6612</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -3617,7 +3662,7 @@
         <v>983</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>17</v>
@@ -3647,13 +3692,13 @@
         <v>983</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,10 +3781,10 @@
         <v>12272</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -3751,10 +3796,10 @@
         <v>22228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>11</v>
@@ -3787,13 +3832,13 @@
         <v>947</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3802,13 +3847,13 @@
         <v>947</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3921,13 @@
         <v>25657</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -3891,10 +3936,10 @@
         <v>25335</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>11</v>
@@ -3906,13 +3951,13 @@
         <v>50992</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,13 +3972,13 @@
         <v>5112</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3942,13 +3987,13 @@
         <v>969</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -3957,13 +4002,13 @@
         <v>6081</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4076,13 @@
         <v>80888</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="H28" s="7">
         <v>89</v>
@@ -4046,13 +4091,13 @@
         <v>96559</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="M28" s="7">
         <v>158</v>
@@ -4061,13 +4106,13 @@
         <v>177448</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4127,13 @@
         <v>14051</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -4097,13 +4142,13 @@
         <v>4759</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -4112,13 +4157,13 @@
         <v>18809</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,7 +4243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E3D692-18C9-47E7-9A12-2BE215B971EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB72398C-2616-4097-9DD2-D27614BE4CBF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4215,7 +4260,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4337,10 +4382,10 @@
         <v>6913</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -4352,10 +4397,10 @@
         <v>11375</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -4388,13 +4433,13 @@
         <v>1819</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4403,13 +4448,13 @@
         <v>1819</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,7 +4540,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -4510,7 +4555,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -4549,7 +4594,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4564,7 +4609,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,7 +4695,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -4665,7 +4710,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -4704,7 +4749,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4719,7 +4764,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,7 +4865,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4874,7 +4919,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,7 +5157,7 @@
         <v>1885</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>17</v>
@@ -5127,10 +5172,10 @@
         <v>5439</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -5163,7 +5208,7 @@
         <v>890</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
@@ -5178,13 +5223,13 @@
         <v>890</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,13 +5297,13 @@
         <v>18033</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -5267,10 +5312,10 @@
         <v>18167</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -5282,13 +5327,13 @@
         <v>36200</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,13 +5348,13 @@
         <v>3286</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5318,13 +5363,13 @@
         <v>1006</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -5333,13 +5378,13 @@
         <v>4292</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5410,7 +5455,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -5440,7 +5485,7 @@
         <v>11</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5464,7 +5509,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5494,7 +5539,7 @@
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,13 +5607,13 @@
         <v>64832</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="H28" s="7">
         <v>69</v>
@@ -5577,13 +5622,13 @@
         <v>75164</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="M28" s="7">
         <v>130</v>
@@ -5592,13 +5637,13 @@
         <v>139996</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>223</v>
+        <v>98</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,13 +5658,13 @@
         <v>3286</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -5628,13 +5673,13 @@
         <v>3715</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -5643,13 +5688,13 @@
         <v>7001</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
